--- a/sheetname.xlsx
+++ b/sheetname.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Index</t>
   </si>
@@ -40,55 +40,31 @@
     <t>Jithin S</t>
   </si>
   <si>
-    <t>16</t>
+    <t>3</t>
   </si>
   <si>
     <t>13000</t>
   </si>
   <si>
-    <t>619</t>
+    <t>591</t>
   </si>
   <si>
-    <t>21</t>
+    <t>22</t>
   </si>
   <si>
-    <t>9905</t>
+    <t>1773</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>susanth s</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1857</t>
+    <t>Bipin Alex</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Bipin Alex</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>4333</t>
-  </si>
-  <si>
-    <t>Aswathy AS</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>7143</t>
-  </si>
-  <si>
-    <t>14286</t>
+    <t>1182</t>
   </si>
 </sst>
 </file>
@@ -128,7 +104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -203,52 +179,6 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>25</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="1.5" right="1.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sheetname.xlsx
+++ b/sheetname.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Index</t>
   </si>
@@ -37,34 +37,46 @@
     <t>0</t>
   </si>
   <si>
+    <t>Bipin Alex</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>13000</t>
+  </si>
+  <si>
+    <t>591</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>1773</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Jithin S</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>1773</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Bipin Alex</t>
+    <t>5</t>
+  </si>
+  <si>
+    <t>2955</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>1182</t>
+    <t>Aswathy AS</t>
+  </si>
+  <si>
+    <t>150000</t>
+  </si>
+  <si>
+    <t>6818</t>
   </si>
 </sst>
 </file>
@@ -104,7 +116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -179,6 +191,29 @@
         <v>17</v>
       </c>
     </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="1.5" right="1.5" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sheetname.xlsx
+++ b/sheetname.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Index</t>
   </si>
@@ -40,43 +40,19 @@
     <t>Bipin Alex</t>
   </si>
   <si>
-    <t>3</t>
+    <t>1</t>
   </si>
   <si>
     <t>13000</t>
   </si>
   <si>
-    <t>591</t>
+    <t>565</t>
   </si>
   <si>
-    <t>22</t>
+    <t>23</t>
   </si>
   <si>
-    <t>1773</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Jithin S</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>2955</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>Aswathy AS</t>
-  </si>
-  <si>
-    <t>150000</t>
-  </si>
-  <si>
-    <t>6818</t>
+    <t>sushanth s</t>
   </si>
 </sst>
 </file>
@@ -116,7 +92,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -165,18 +141,18 @@
         <v>12</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>10</v>
@@ -188,30 +164,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
